--- a/biology/Botanique/Quercus_benthamii/Quercus_benthamii.xlsx
+++ b/biology/Botanique/Quercus_benthamii/Quercus_benthamii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Quercus benthamii est une espèce de plantes de la famille des Fagaceae. Cette espèce de chêne se rencontre au Guatemala et au Mexique. L'espèce est menacée par la destruction de son habitat.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Quercus gemmata Trel.
 Quercus lowilliamsii C.H.Mull.
